--- a/class_schedules_spring_2018/ARABIC (ARBC).xlsx
+++ b/class_schedules_spring_2018/ARABIC (ARBC).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
   <si>
     <t>102</t>
   </si>
@@ -73,31 +73,46 @@
     <t>F</t>
   </si>
   <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>0130</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
     <t>Beginning Arabic II MTWRF</t>
   </si>
   <si>
-    <t>Language &amp; Society-Arab World TR</t>
+    <t>Language &amp; Society Arab World TR</t>
   </si>
   <si>
     <t>Intermediate Arabic II MTWRF</t>
   </si>
   <si>
-    <t>Intermediate Arabic II</t>
-  </si>
-  <si>
-    <t>Advanced Arabic</t>
-  </si>
-  <si>
-    <t>Private Reading -</t>
-  </si>
-  <si>
-    <t>1000-1050am</t>
-  </si>
-  <si>
-    <t>0130-0245pm</t>
-  </si>
-  <si>
-    <t>1100-1150am</t>
+    <t>Intermediate Arabic</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Reading </t>
+  </si>
+  <si>
+    <t>1050am</t>
+  </si>
+  <si>
+    <t>0245pm</t>
+  </si>
+  <si>
+    <t>1150am</t>
   </si>
   <si>
     <t>MTWF</t>
@@ -115,7 +130,7 @@
     <t>KING</t>
   </si>
   <si>
-    <t>0230-0320pm</t>
+    <t>0230</t>
   </si>
   <si>
     <t>TBA</t>
@@ -124,7 +139,13 @@
     <t>325</t>
   </si>
   <si>
-    <t>Al-Raba'a Basem</t>
+    <t>0320pm</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Raba'a Basem</t>
   </si>
   <si>
     <t>Hamilton Elizabeth</t>
@@ -485,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -522,8 +543,14 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -546,19 +573,25 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -581,19 +614,25 @@
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -616,19 +655,25 @@
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
         <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -651,19 +696,25 @@
         <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
         <v>33</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -686,19 +737,25 @@
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -717,23 +774,26 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -752,20 +812,23 @@
       <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
